--- a/BiologyCoursework/RealExperiment/RealData.xlsx
+++ b/BiologyCoursework/RealExperiment/RealData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="14115" windowHeight="7710"/>
+    <workbookView xWindow="720" yWindow="420" windowWidth="14115" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,6 +379,308 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph to Show</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> How Different Stimuli Effect Reaction Time.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Silent</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>277.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Radio</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Phone</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$34:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>349.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>408.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="105794176"/>
+        <c:axId val="107385216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="105794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Participant Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107385216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107385216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Reacton Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105794176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -515,6 +817,36 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -809,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="P6" s="17">
-        <f t="shared" ref="P6:P33" si="0">_xlfn.STDEV.P(E6:I6)</f>
+        <f t="shared" ref="P6:P29" si="0">_xlfn.STDEV.P(E6:I6)</f>
         <v>14.485855169785454</v>
       </c>
       <c r="Q6" s="17"/>

--- a/BiologyCoursework/RealExperiment/RealData.xlsx
+++ b/BiologyCoursework/RealExperiment/RealData.xlsx
@@ -583,11 +583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105794176"/>
-        <c:axId val="107385216"/>
+        <c:axId val="168659200"/>
+        <c:axId val="168669568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105794176"/>
+        <c:axId val="168659200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107385216"/>
+        <c:crossAx val="168669568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107385216"/>
+        <c:axId val="168669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,254 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Reacton Time (ms)</a:t>
+                  <a:t>Reacton Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168659200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bar Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> to Show How Different Stimuli Effect Reaction Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Silent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>257.28000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Radio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>263.16000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Phone</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>364.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="165255808"/>
+        <c:axId val="165282560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="165255808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Silent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>                Radio                   Phone</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>                   </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3047649516665058"/>
+              <c:y val="0.88331000291630213"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165282560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165282560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Reaction Time / ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -653,16 +900,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105794176"/>
+        <c:crossAx val="165255808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -844,6 +1085,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1141,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
